--- a/internship.xlsx
+++ b/internship.xlsx
@@ -2305,7 +2305,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>216 applicants</t>
+          <t>218 applicants</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2476,7 +2476,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>28 applicants</t>
+          <t>29 applicants</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2932,7 +2932,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>289 applicants</t>
+          <t>291 applicants</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -3901,7 +3901,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>893 applicants</t>
+          <t>898 applicants</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -4243,7 +4243,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>362 applicants</t>
+          <t>363 applicants</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -4756,7 +4756,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>142 applicants</t>
+          <t>143 applicants</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -5098,7 +5098,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>721 applicants</t>
+          <t>723 applicants</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -5212,7 +5212,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>106 applicants</t>
+          <t>107 applicants</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -5908,22 +5908,22 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Digital Marketing </t>
+          <t xml:space="preserve"> Volunteering </t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/digital-marketing-work-from-home-job-internship-at-careernaksha1620242989</t>
+          <t>https://internshala.com/internship/detail/volunteering-work-from-home-job-internship-at-youth-empowerment-foundation1620246737</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CareerNaksha </t>
+          <t xml:space="preserve"> Youth Empowerment Foundation </t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>https://internshala.com/internships/internship-at-CareerNaksha</t>
+          <t>https://internshala.com/internships/internship-at-Youth Empowerment Foundation</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -5938,12 +5938,12 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2 Months </t>
+          <t xml:space="preserve"> 1 Month </t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5000 /month</t>
+          <t>Unpaid</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -5953,34 +5953,34 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>28 applicants</t>
+          <t>No applicants yet</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3 </t>
+          <t xml:space="preserve"> 50 </t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Telecalling </t>
+          <t xml:space="preserve"> Graphic Design </t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/telecalling-work-from-home-job-internship-at-careernaksha1620242963</t>
+          <t>https://internshala.com/internship/detail/graphic-design-work-from-home-job-internship-at-am-infotrix1620243881</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CareerNaksha </t>
+          <t xml:space="preserve"> AM INFOTRIX </t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>https://internshala.com/internships/internship-at-CareerNaksha</t>
+          <t>https://internshala.com/internships/internship-at-AM INFOTRIX</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -5995,12 +5995,12 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3 Months </t>
+          <t xml:space="preserve"> 4 Months </t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5000 /month</t>
+          <t xml:space="preserve"> 4000 /month</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -6022,22 +6022,22 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Angular Web Development </t>
+          <t xml:space="preserve"> Graphic Design </t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/angular-web-development-work-from-home-job-internship-at-careernaksha1620242939</t>
+          <t>https://internshala.com/internship/detail/graphic-design-work-from-home-job-internship-at-teens-of-god-registered-ngo1620243497</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CareerNaksha </t>
+          <t xml:space="preserve"> Teens Of God (Registered NGO) </t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>https://internshala.com/internships/internship-at-CareerNaksha</t>
+          <t>https://internshala.com/internships/internship-at-Teens Of God (Registered NGO)</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -6052,12 +6052,12 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2 Months </t>
+          <t xml:space="preserve"> 3 Months </t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5000 /month + Incentives</t>
+          <t>Unpaid</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -6072,19 +6072,19 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2 </t>
+          <t xml:space="preserve"> 20 </t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Social Media Marketing </t>
+          <t xml:space="preserve"> Digital Marketing </t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/social-media-marketing-work-from-home-job-internship-at-careernaksha1620242913</t>
+          <t>https://internshala.com/internship/detail/digital-marketing-work-from-home-job-internship-at-careernaksha1620242989</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -6124,24 +6124,24 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>No applicants yet</t>
+          <t>43 applicants</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2 </t>
+          <t xml:space="preserve"> 3 </t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Media &amp; Public Relations (PR) </t>
+          <t xml:space="preserve"> Telecalling </t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/media-public-relations-pr-work-from-home-job-internship-at-careernaksha1620242888</t>
+          <t>https://internshala.com/internship/detail/telecalling-work-from-home-job-internship-at-careernaksha1620242963</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -6166,7 +6166,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2 Months </t>
+          <t xml:space="preserve"> 3 Months </t>
         </is>
       </c>
       <c r="H101" t="inlineStr">

--- a/internship.xlsx
+++ b/internship.xlsx
@@ -3901,7 +3901,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>898 applicants</t>
+          <t>899 applicants</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -6124,7 +6124,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>43 applicants</t>
+          <t>45 applicants</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
